--- a/Laptop Arithmetic Data.xlsx
+++ b/Laptop Arithmetic Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="CT-Log 2016-11-21 20-34-49" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -102,9 +102,6 @@
     <t>Load</t>
   </si>
   <si>
-    <t>Core 0 Power</t>
-  </si>
-  <si>
     <t>Program</t>
   </si>
   <si>
@@ -131,13 +128,16 @@
   <si>
     <t>FLOPS per Watt</t>
   </si>
+  <si>
+    <t>Power</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -619,7 +619,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -694,6 +694,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Laptop, High</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Arithmetic Intensity</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2532,7 +2562,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Core 0 Power</c:v>
+                  <c:v>Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4511,8 +4541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,16 +4560,16 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -4562,7 +4592,7 @@
         <v>2048000000</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <f xml:space="preserve"> AVERAGE(S11:S142)</f>
@@ -4586,7 +4616,7 @@
         <v>655.76507577821303</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M3" s="3">
         <f>K6/M2</f>
@@ -4627,7 +4657,7 @@
         <v>655.81374027781203</v>
       </c>
       <c r="J5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5">
         <f>J2*G6</f>
@@ -4644,7 +4674,7 @@
         <v>656.02091914039704</v>
       </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3">
         <f>K5/H6</f>
@@ -4659,7 +4689,7 @@
         <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3">
         <f>K6/1000000</f>
@@ -4719,7 +4749,7 @@
         <v>26</v>
       </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="T9" t="s">
         <v>12</v>

--- a/Laptop Arithmetic Data.xlsx
+++ b/Laptop Arithmetic Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="CT-Log 2016-11-21 20-34-49" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>CPUID:</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimated C </t>
   </si>
 </sst>
 </file>
@@ -616,11 +619,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4539,20 +4543,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1257"/>
+  <dimension ref="A1:U1257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4572,7 +4577,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4598,8 +4603,15 @@
         <f xml:space="preserve"> AVERAGE(S11:S142)</f>
         <v>15.050000000000027</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2">
+        <f>0.2</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4618,12 +4630,12 @@
       <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <f>K6/M2</f>
         <v>829728.01780515187</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4640,7 +4652,7 @@
         <v>656.02091914039704</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4664,7 +4676,7 @@
         <v>8192000000</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G6">
         <f>SUM(G2:G5)</f>
         <v>4</v>
@@ -4681,7 +4693,7 @@
         <v>12487406.667967558</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -4696,7 +4708,7 @@
         <v>12.487406667967559</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -4755,7 +4767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>42695.857569444444</v>
       </c>
@@ -4809,7 +4821,7 @@
         <v>42695.857569444444</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>42695.857627314814</v>
       </c>
@@ -4863,7 +4875,7 @@
         <v>42695.857627314814</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>42695.857685185183</v>
       </c>
@@ -4916,8 +4928,12 @@
         <f t="shared" si="3"/>
         <v>42695.857685185183</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <f>S12/Q12</f>
+        <v>0.26991869918699191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>42695.857743055552</v>
       </c>
@@ -4970,8 +4986,12 @@
         <f t="shared" si="3"/>
         <v>42695.857743055552</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <f t="shared" ref="U13:U76" si="4">S13/Q13</f>
+        <v>0.24925373134328357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>42695.857800925929</v>
       </c>
@@ -5024,8 +5044,12 @@
         <f t="shared" si="3"/>
         <v>42695.857800925929</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>0.24705882352941178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>42695.857858796298</v>
       </c>
@@ -5078,8 +5102,12 @@
         <f t="shared" si="3"/>
         <v>42695.857858796298</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <f t="shared" si="4"/>
+        <v>0.24202898550724636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>42695.857916666668</v>
       </c>
@@ -5132,8 +5160,12 @@
         <f t="shared" si="3"/>
         <v>42695.857916666668</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <f t="shared" si="4"/>
+        <v>0.2380281690140845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>42695.857974537037</v>
       </c>
@@ -5186,8 +5218,12 @@
         <f t="shared" si="3"/>
         <v>42695.857974537037</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <f t="shared" si="4"/>
+        <v>0.23194444444444443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>42695.858032407406</v>
       </c>
@@ -5240,8 +5276,12 @@
         <f t="shared" si="3"/>
         <v>42695.858032407406</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <f t="shared" si="4"/>
+        <v>0.22857142857142859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>42695.858090277776</v>
       </c>
@@ -5294,8 +5334,12 @@
         <f t="shared" si="3"/>
         <v>42695.858090277776</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <f t="shared" si="4"/>
+        <v>0.23013698630136986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>42695.858148148145</v>
       </c>
@@ -5348,8 +5392,12 @@
         <f t="shared" si="3"/>
         <v>42695.858148148145</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <f t="shared" si="4"/>
+        <v>0.23108108108108111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42695.858206018522</v>
       </c>
@@ -5402,8 +5450,12 @@
         <f t="shared" si="3"/>
         <v>42695.858206018522</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U21">
+        <f t="shared" si="4"/>
+        <v>0.22818791946308725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42695.858263888891</v>
       </c>
@@ -5456,8 +5508,12 @@
         <f t="shared" si="3"/>
         <v>42695.858263888891</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>42695.85832175926</v>
       </c>
@@ -5510,8 +5566,12 @@
         <f t="shared" si="3"/>
         <v>42695.85832175926</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>42695.85837962963</v>
       </c>
@@ -5564,8 +5624,12 @@
         <f t="shared" si="3"/>
         <v>42695.85837962963</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <f t="shared" si="4"/>
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>42695.858437499999</v>
       </c>
@@ -5618,8 +5682,12 @@
         <f t="shared" si="3"/>
         <v>42695.858437499999</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <f t="shared" si="4"/>
+        <v>0.20551724137931035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>42695.858495370368</v>
       </c>
@@ -5672,8 +5740,12 @@
         <f t="shared" si="3"/>
         <v>42695.858495370368</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>42695.858553240738</v>
       </c>
@@ -5726,8 +5798,12 @@
         <f t="shared" si="3"/>
         <v>42695.858553240738</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>42695.858611111114</v>
       </c>
@@ -5780,8 +5856,12 @@
         <f t="shared" si="3"/>
         <v>42695.858611111114</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>42695.858668981484</v>
       </c>
@@ -5834,8 +5914,12 @@
         <f t="shared" si="3"/>
         <v>42695.858668981484</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>42695.858726851853</v>
       </c>
@@ -5888,8 +5972,12 @@
         <f t="shared" si="3"/>
         <v>42695.858726851853</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42695.858784722222</v>
       </c>
@@ -5942,8 +6030,12 @@
         <f t="shared" si="3"/>
         <v>42695.858784722222</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>42695.858842592592</v>
       </c>
@@ -5996,8 +6088,12 @@
         <f t="shared" si="3"/>
         <v>42695.858842592592</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>42695.858900462961</v>
       </c>
@@ -6050,8 +6146,12 @@
         <f t="shared" si="3"/>
         <v>42695.858900462961</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>42695.858958333331</v>
       </c>
@@ -6104,8 +6204,12 @@
         <f t="shared" si="3"/>
         <v>42695.858958333331</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>42695.859016203707</v>
       </c>
@@ -6158,8 +6262,12 @@
         <f t="shared" si="3"/>
         <v>42695.859016203707</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>42695.859074074076</v>
       </c>
@@ -6212,8 +6320,12 @@
         <f t="shared" si="3"/>
         <v>42695.859074074076</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>42695.859131944446</v>
       </c>
@@ -6266,8 +6378,12 @@
         <f t="shared" si="3"/>
         <v>42695.859131944446</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>42695.859189814815</v>
       </c>
@@ -6320,8 +6436,12 @@
         <f t="shared" si="3"/>
         <v>42695.859189814815</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>42695.859247685185</v>
       </c>
@@ -6374,8 +6494,12 @@
         <f t="shared" si="3"/>
         <v>42695.859247685185</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>0.20410958904109588</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>42695.859305555554</v>
       </c>
@@ -6428,8 +6552,12 @@
         <f t="shared" si="3"/>
         <v>42695.859305555554</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42695.859363425923</v>
       </c>
@@ -6482,8 +6610,12 @@
         <f t="shared" si="3"/>
         <v>42695.859363425923</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>0.20272108843537415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42695.8594212963</v>
       </c>
@@ -6536,8 +6668,12 @@
         <f t="shared" si="3"/>
         <v>42695.8594212963</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42695.859479166669</v>
       </c>
@@ -6590,8 +6726,12 @@
         <f t="shared" si="3"/>
         <v>42695.859479166669</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42695.859537037039</v>
       </c>
@@ -6644,8 +6784,12 @@
         <f t="shared" si="3"/>
         <v>42695.859537037039</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U44">
+        <f t="shared" si="4"/>
+        <v>0.20272108843537415</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>42695.859594907408</v>
       </c>
@@ -6698,8 +6842,12 @@
         <f t="shared" si="3"/>
         <v>42695.859594907408</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U45">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42695.859652777777</v>
       </c>
@@ -6752,8 +6900,12 @@
         <f t="shared" si="3"/>
         <v>42695.859652777777</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U46">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>42695.859710648147</v>
       </c>
@@ -6806,8 +6958,12 @@
         <f t="shared" si="3"/>
         <v>42695.859710648147</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U47">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42695.859768518516</v>
       </c>
@@ -6860,8 +7016,12 @@
         <f t="shared" si="3"/>
         <v>42695.859768518516</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U48">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>42695.859826388885</v>
       </c>
@@ -6914,8 +7074,12 @@
         <f t="shared" si="3"/>
         <v>42695.859826388885</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U49">
+        <f t="shared" si="4"/>
+        <v>0.20272108843537415</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>42695.859884259262</v>
       </c>
@@ -6968,8 +7132,12 @@
         <f t="shared" si="3"/>
         <v>42695.859884259262</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U50">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>42695.859942129631</v>
       </c>
@@ -7022,8 +7190,12 @@
         <f t="shared" si="3"/>
         <v>42695.859942129631</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U51">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>42695.86</v>
       </c>
@@ -7076,8 +7248,12 @@
         <f t="shared" si="3"/>
         <v>42695.86</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U52">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>42695.86005787037</v>
       </c>
@@ -7130,8 +7306,12 @@
         <f t="shared" si="3"/>
         <v>42695.86005787037</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U53">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>42695.860115740739</v>
       </c>
@@ -7184,8 +7364,12 @@
         <f t="shared" si="3"/>
         <v>42695.860115740739</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U54">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>42695.860173611109</v>
       </c>
@@ -7238,8 +7422,12 @@
         <f t="shared" si="3"/>
         <v>42695.860173611109</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U55">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>42695.860231481478</v>
       </c>
@@ -7292,8 +7480,12 @@
         <f t="shared" si="3"/>
         <v>42695.860231481478</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U56">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>42695.860289351855</v>
       </c>
@@ -7346,8 +7538,12 @@
         <f t="shared" si="3"/>
         <v>42695.860289351855</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U57">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>42695.860347222224</v>
       </c>
@@ -7400,8 +7596,12 @@
         <f t="shared" si="3"/>
         <v>42695.860347222224</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U58">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>42695.860405092593</v>
       </c>
@@ -7454,8 +7654,12 @@
         <f t="shared" si="3"/>
         <v>42695.860405092593</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U59">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>42695.860462962963</v>
       </c>
@@ -7508,8 +7712,12 @@
         <f t="shared" si="3"/>
         <v>42695.860462962963</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U60">
+        <f t="shared" si="4"/>
+        <v>0.20134228187919462</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>42695.860520833332</v>
       </c>
@@ -7562,8 +7770,12 @@
         <f t="shared" si="3"/>
         <v>42695.860520833332</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U61">
+        <f t="shared" si="4"/>
+        <v>0.20134228187919462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>42695.860578703701</v>
       </c>
@@ -7616,8 +7828,12 @@
         <f t="shared" si="3"/>
         <v>42695.860578703701</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U62">
+        <f t="shared" si="4"/>
+        <v>0.20135135135135135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>42695.860636574071</v>
       </c>
@@ -7670,8 +7886,12 @@
         <f t="shared" si="3"/>
         <v>42695.860636574071</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U63">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>42695.860694444447</v>
       </c>
@@ -7724,8 +7944,12 @@
         <f t="shared" si="3"/>
         <v>42695.860694444447</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U64">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>42695.860752314817</v>
       </c>
@@ -7778,8 +8002,12 @@
         <f t="shared" si="3"/>
         <v>42695.860752314817</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U65">
+        <f t="shared" si="4"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>42695.860810185186</v>
       </c>
@@ -7832,8 +8060,12 @@
         <f t="shared" si="3"/>
         <v>42695.860810185186</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U66">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>42695.860868055555</v>
       </c>
@@ -7886,8 +8118,12 @@
         <f t="shared" si="3"/>
         <v>42695.860868055555</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U67">
+        <f t="shared" si="4"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>42695.860925925925</v>
       </c>
@@ -7940,8 +8176,12 @@
         <f t="shared" si="3"/>
         <v>42695.860925925925</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>42695.860983796294</v>
       </c>
@@ -7994,8 +8234,12 @@
         <f t="shared" si="3"/>
         <v>42695.860983796294</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>42695.861041666663</v>
       </c>
@@ -8048,8 +8292,12 @@
         <f t="shared" si="3"/>
         <v>42695.861041666663</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>42695.86109953704</v>
       </c>
@@ -8102,8 +8350,12 @@
         <f t="shared" si="3"/>
         <v>42695.86109953704</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U71">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>42695.861157407409</v>
       </c>
@@ -8156,8 +8408,12 @@
         <f t="shared" si="3"/>
         <v>42695.861157407409</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U72">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>42695.861215277779</v>
       </c>
@@ -8210,8 +8466,12 @@
         <f t="shared" si="3"/>
         <v>42695.861215277779</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U73">
+        <f t="shared" si="4"/>
+        <v>0.20134228187919462</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>42695.861273148148</v>
       </c>
@@ -8264,8 +8524,12 @@
         <f t="shared" si="3"/>
         <v>42695.861273148148</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U74">
+        <f t="shared" si="4"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>42695.861331018517</v>
       </c>
@@ -8303,23 +8567,27 @@
         <v>15</v>
       </c>
       <c r="Q75">
-        <f t="shared" ref="Q75:Q138" si="4">AVERAGE(B75:C75)</f>
+        <f t="shared" ref="Q75:Q138" si="5">AVERAGE(B75:C75)</f>
         <v>75</v>
       </c>
       <c r="R75">
-        <f t="shared" ref="R75:R138" si="5">AVERAGE(H75, M75)</f>
+        <f t="shared" ref="R75:R138" si="6">AVERAGE(H75, M75)</f>
         <v>100</v>
       </c>
       <c r="S75">
-        <f t="shared" ref="S75:S138" si="6">O75</f>
+        <f t="shared" ref="S75:S138" si="7">O75</f>
         <v>15</v>
       </c>
       <c r="T75" s="2">
-        <f t="shared" ref="T75:T138" si="7">A75</f>
+        <f t="shared" ref="T75:T138" si="8">A75</f>
         <v>42695.861331018517</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U75">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>42695.861388888887</v>
       </c>
@@ -8357,23 +8625,27 @@
         <v>14.9</v>
       </c>
       <c r="Q76">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="7"/>
+        <v>14.9</v>
+      </c>
+      <c r="T76" s="2">
+        <f t="shared" si="8"/>
+        <v>42695.861388888887</v>
+      </c>
+      <c r="U76">
         <f t="shared" si="4"/>
-        <v>75</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="6"/>
-        <v>14.9</v>
-      </c>
-      <c r="T76" s="2">
-        <f t="shared" si="7"/>
-        <v>42695.861388888887</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>42695.861446759256</v>
       </c>
@@ -8411,23 +8683,27 @@
         <v>14.9</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="R77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861446759256</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U77">
+        <f t="shared" ref="U77:U140" si="9">S77/Q77</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>42695.861504629633</v>
       </c>
@@ -8465,23 +8741,27 @@
         <v>15</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="R78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861504629633</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U78">
+        <f t="shared" si="9"/>
+        <v>0.20134228187919462</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>42695.861562500002</v>
       </c>
@@ -8519,23 +8799,27 @@
         <v>14.9</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861562500002</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U79">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>42695.861620370371</v>
       </c>
@@ -8573,23 +8857,27 @@
         <v>15</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861620370371</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U80">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>42695.861678240741</v>
       </c>
@@ -8627,23 +8915,27 @@
         <v>15</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861678240741</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U81">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>42695.86173611111</v>
       </c>
@@ -8681,23 +8973,27 @@
         <v>14.9</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.86173611111</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U82">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>42695.861793981479</v>
       </c>
@@ -8735,23 +9031,27 @@
         <v>14.9</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="R83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861793981479</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U83">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>42695.861851851849</v>
       </c>
@@ -8789,23 +9089,27 @@
         <v>14.9</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861851851849</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U84">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>42695.861909722225</v>
       </c>
@@ -8843,23 +9147,27 @@
         <v>14.9</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861909722225</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U85">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>42695.861967592595</v>
       </c>
@@ -8897,23 +9205,27 @@
         <v>15</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.861967592595</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U86">
+        <f t="shared" si="9"/>
+        <v>0.19867549668874171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>42695.862025462964</v>
       </c>
@@ -8951,23 +9263,27 @@
         <v>14.9</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862025462964</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U87">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>42695.862083333333</v>
       </c>
@@ -9005,23 +9321,27 @@
         <v>14.9</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862083333333</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U88">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>42695.862141203703</v>
       </c>
@@ -9059,23 +9379,27 @@
         <v>14.9</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862141203703</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U89">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>42695.862199074072</v>
       </c>
@@ -9113,23 +9437,27 @@
         <v>15</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862199074072</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U90">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>42695.862256944441</v>
       </c>
@@ -9167,23 +9495,27 @@
         <v>15</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862256944441</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U91">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>42695.862314814818</v>
       </c>
@@ -9221,23 +9553,27 @@
         <v>14.9</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862314814818</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U92">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>42695.862372685187</v>
       </c>
@@ -9275,23 +9611,27 @@
         <v>15</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="R93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862372685187</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U93">
+        <f t="shared" si="9"/>
+        <v>0.20134228187919462</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>42695.862430555557</v>
       </c>
@@ -9329,23 +9669,27 @@
         <v>14.9</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862430555557</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U94">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>42695.862488425926</v>
       </c>
@@ -9383,23 +9727,27 @@
         <v>14.9</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862488425926</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U95">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>42695.862546296295</v>
       </c>
@@ -9437,23 +9785,27 @@
         <v>14.9</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76</v>
       </c>
       <c r="R96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862546296295</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U96">
+        <f t="shared" si="9"/>
+        <v>0.19605263157894737</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>42695.862604166665</v>
       </c>
@@ -9491,23 +9843,27 @@
         <v>14.9</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862604166665</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U97">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>42695.862662037034</v>
       </c>
@@ -9545,23 +9901,27 @@
         <v>14.9</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862662037034</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U98">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>42695.862719907411</v>
       </c>
@@ -9599,23 +9959,27 @@
         <v>14.9</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.5</v>
       </c>
       <c r="R99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862719907411</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U99">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>42695.86277777778</v>
       </c>
@@ -9653,23 +10017,27 @@
         <v>14.9</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.86277777778</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U100">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>42695.862835648149</v>
       </c>
@@ -9707,23 +10075,27 @@
         <v>14.9</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862835648149</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U101">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>42695.862893518519</v>
       </c>
@@ -9761,23 +10133,27 @@
         <v>14.9</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862893518519</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U102">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>42695.862951388888</v>
       </c>
@@ -9815,23 +10191,27 @@
         <v>14.9</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.862951388888</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U103">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>42695.863009259258</v>
       </c>
@@ -9869,23 +10249,27 @@
         <v>14.9</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863009259258</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U104">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>42695.863067129627</v>
       </c>
@@ -9923,23 +10307,27 @@
         <v>15</v>
       </c>
       <c r="Q105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863067129627</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U105">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>42695.863125000003</v>
       </c>
@@ -9977,23 +10365,27 @@
         <v>14.9</v>
       </c>
       <c r="Q106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863125000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U106">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>42695.863182870373</v>
       </c>
@@ -10031,23 +10423,27 @@
         <v>14.9</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863182870373</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U107">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>42695.863240740742</v>
       </c>
@@ -10085,23 +10481,27 @@
         <v>14.9</v>
       </c>
       <c r="Q108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863240740742</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U108">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>42695.863298611112</v>
       </c>
@@ -10139,23 +10539,27 @@
         <v>15</v>
       </c>
       <c r="Q109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863298611112</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U109">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>42695.863356481481</v>
       </c>
@@ -10193,23 +10597,27 @@
         <v>14.9</v>
       </c>
       <c r="Q110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863356481481</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U110">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>42695.86341435185</v>
       </c>
@@ -10247,23 +10655,27 @@
         <v>14.9</v>
       </c>
       <c r="Q111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.86341435185</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U111">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>42695.86347222222</v>
       </c>
@@ -10301,23 +10713,27 @@
         <v>14.9</v>
       </c>
       <c r="Q112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.86347222222</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U112">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>42695.863530092596</v>
       </c>
@@ -10355,23 +10771,27 @@
         <v>14.9</v>
       </c>
       <c r="Q113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863530092596</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U113">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>42695.863587962966</v>
       </c>
@@ -10409,23 +10829,27 @@
         <v>14.9</v>
       </c>
       <c r="Q114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863587962966</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U114">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>42695.863645833335</v>
       </c>
@@ -10463,23 +10887,27 @@
         <v>14.9</v>
       </c>
       <c r="Q115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863645833335</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U115">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>42695.863703703704</v>
       </c>
@@ -10517,23 +10945,27 @@
         <v>15</v>
       </c>
       <c r="Q116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863703703704</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U116">
+        <f t="shared" si="9"/>
+        <v>0.19867549668874171</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>42695.863761574074</v>
       </c>
@@ -10571,23 +11003,27 @@
         <v>14.9</v>
       </c>
       <c r="Q117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863761574074</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U117">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>42695.863819444443</v>
       </c>
@@ -10625,23 +11061,27 @@
         <v>14.9</v>
       </c>
       <c r="Q118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863819444443</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U118">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>42695.863877314812</v>
       </c>
@@ -10679,23 +11119,27 @@
         <v>14.9</v>
       </c>
       <c r="Q119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863877314812</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U119">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>42695.863935185182</v>
       </c>
@@ -10733,23 +11177,27 @@
         <v>14.9</v>
       </c>
       <c r="Q120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863935185182</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U120">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>42695.863993055558</v>
       </c>
@@ -10787,23 +11235,27 @@
         <v>15</v>
       </c>
       <c r="Q121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.863993055558</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U121">
+        <f t="shared" si="9"/>
+        <v>0.19867549668874171</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>42695.864050925928</v>
       </c>
@@ -10841,23 +11293,27 @@
         <v>14.9</v>
       </c>
       <c r="Q122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864050925928</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U122">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>42695.864108796297</v>
       </c>
@@ -10895,23 +11351,27 @@
         <v>14.9</v>
       </c>
       <c r="Q123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864108796297</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U123">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>42695.864166666666</v>
       </c>
@@ -10949,23 +11409,27 @@
         <v>14.9</v>
       </c>
       <c r="Q124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864166666666</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U124">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>42695.864224537036</v>
       </c>
@@ -11003,23 +11467,27 @@
         <v>14.9</v>
       </c>
       <c r="Q125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864224537036</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U125">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>42695.864282407405</v>
       </c>
@@ -11057,23 +11525,27 @@
         <v>14.9</v>
       </c>
       <c r="Q126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864282407405</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U126">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>42695.864340277774</v>
       </c>
@@ -11111,23 +11583,27 @@
         <v>15</v>
       </c>
       <c r="Q127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864340277774</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U127">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>42695.864398148151</v>
       </c>
@@ -11165,23 +11641,27 @@
         <v>14.9</v>
       </c>
       <c r="Q128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864398148151</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U128">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>42695.86445601852</v>
       </c>
@@ -11219,23 +11699,27 @@
         <v>14.9</v>
       </c>
       <c r="Q129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.86445601852</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U129">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>42695.86451388889</v>
       </c>
@@ -11273,23 +11757,27 @@
         <v>14.9</v>
       </c>
       <c r="Q130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.86451388889</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U130">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>42695.864571759259</v>
       </c>
@@ -11327,23 +11815,27 @@
         <v>14.9</v>
       </c>
       <c r="Q131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T131" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864571759259</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U131">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>42695.864629629628</v>
       </c>
@@ -11381,23 +11873,27 @@
         <v>15</v>
       </c>
       <c r="Q132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864629629628</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U132">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>42695.864687499998</v>
       </c>
@@ -11435,23 +11931,27 @@
         <v>15</v>
       </c>
       <c r="Q133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="T133" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864687499998</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U133">
+        <f t="shared" si="9"/>
+        <v>0.19867549668874171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>42695.864745370367</v>
       </c>
@@ -11489,23 +11989,27 @@
         <v>14.9</v>
       </c>
       <c r="Q134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T134" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864745370367</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U134">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>42695.864803240744</v>
       </c>
@@ -11543,23 +12047,27 @@
         <v>14.9</v>
       </c>
       <c r="Q135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T135" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864803240744</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U135">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>42695.864861111113</v>
       </c>
@@ -11597,23 +12105,27 @@
         <v>14.9</v>
       </c>
       <c r="Q136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.5</v>
       </c>
       <c r="R136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T136" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864861111113</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U136">
+        <f t="shared" si="9"/>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>42695.864918981482</v>
       </c>
@@ -11651,23 +12163,27 @@
         <v>14.9</v>
       </c>
       <c r="Q137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T137" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864918981482</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U137">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>42695.864976851852</v>
       </c>
@@ -11705,23 +12221,27 @@
         <v>14.9</v>
       </c>
       <c r="Q138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="R138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="S138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.9</v>
       </c>
       <c r="T138" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>42695.864976851852</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U138">
+        <f t="shared" si="9"/>
+        <v>0.19866666666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>42695.865034722221</v>
       </c>
@@ -11759,23 +12279,27 @@
         <v>15</v>
       </c>
       <c r="Q139">
-        <f t="shared" ref="Q139:Q150" si="8">AVERAGE(B139:C139)</f>
+        <f t="shared" ref="Q139:Q150" si="10">AVERAGE(B139:C139)</f>
         <v>75</v>
       </c>
       <c r="R139">
-        <f t="shared" ref="R139:R150" si="9">AVERAGE(H139, M139)</f>
+        <f t="shared" ref="R139:R150" si="11">AVERAGE(H139, M139)</f>
         <v>100</v>
       </c>
       <c r="S139">
-        <f t="shared" ref="S139:S150" si="10">O139</f>
+        <f t="shared" ref="S139:S150" si="12">O139</f>
         <v>15</v>
       </c>
       <c r="T139" s="2">
-        <f t="shared" ref="T139:T150" si="11">A139</f>
+        <f t="shared" ref="T139:T150" si="13">A139</f>
         <v>42695.865034722221</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U139">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>42695.86509259259</v>
       </c>
@@ -11813,23 +12337,27 @@
         <v>14.9</v>
       </c>
       <c r="Q140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
       <c r="R140">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="S140">
+        <f t="shared" si="12"/>
+        <v>14.9</v>
+      </c>
+      <c r="T140" s="2">
+        <f t="shared" si="13"/>
+        <v>42695.86509259259</v>
+      </c>
+      <c r="U140">
         <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="S140">
-        <f t="shared" si="10"/>
-        <v>14.9</v>
-      </c>
-      <c r="T140" s="2">
-        <f t="shared" si="11"/>
-        <v>42695.86509259259</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>42695.86515046296</v>
       </c>
@@ -11867,23 +12395,27 @@
         <v>14.9</v>
       </c>
       <c r="Q141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75.5</v>
       </c>
       <c r="R141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="S141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>14.9</v>
       </c>
       <c r="T141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.86515046296</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U141">
+        <f t="shared" ref="U141:U150" si="14">S141/Q141</f>
+        <v>0.19735099337748344</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>42695.865208333336</v>
       </c>
@@ -11921,23 +12453,27 @@
         <v>15</v>
       </c>
       <c r="Q142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="R142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="S142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="T142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865208333336</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U142">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>42695.865266203706</v>
       </c>
@@ -11975,23 +12511,23 @@
         <v>2.4</v>
       </c>
       <c r="Q143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="R143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
       <c r="S143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="T143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865266203706</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>42695.865324074075</v>
       </c>
@@ -12029,19 +12565,19 @@
         <v>3.2</v>
       </c>
       <c r="Q144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59.5</v>
       </c>
       <c r="R144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="S144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
       <c r="T144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865324074075</v>
       </c>
     </row>
@@ -12083,19 +12619,19 @@
         <v>3.2</v>
       </c>
       <c r="Q145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="R145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="S145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
       <c r="T145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865381944444</v>
       </c>
     </row>
@@ -12137,19 +12673,19 @@
         <v>2.9</v>
       </c>
       <c r="Q146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="R146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="S146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.9</v>
       </c>
       <c r="T146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865439814814</v>
       </c>
     </row>
@@ -12191,19 +12727,19 @@
         <v>3.2</v>
       </c>
       <c r="Q147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54.5</v>
       </c>
       <c r="R147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>15.5</v>
       </c>
       <c r="S147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
       <c r="T147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865497685183</v>
       </c>
     </row>
@@ -12245,19 +12781,19 @@
         <v>2.4</v>
       </c>
       <c r="Q148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="R148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>6.5</v>
       </c>
       <c r="S148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
       <c r="T148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865555555552</v>
       </c>
     </row>
@@ -12299,19 +12835,19 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="Q149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
       <c r="R149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
       <c r="S149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2999999999999998</v>
       </c>
       <c r="T149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865613425929</v>
       </c>
     </row>
@@ -12353,19 +12889,19 @@
         <v>2.8</v>
       </c>
       <c r="Q150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
       <c r="R150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>5.5</v>
       </c>
       <c r="S150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.8</v>
       </c>
       <c r="T150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42695.865671296298</v>
       </c>
     </row>
